--- a/PySpark_Notes_V2.xlsx
+++ b/PySpark_Notes_V2.xlsx
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC9EE7D-ED0E-4349-B258-F81DB8C0A030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1D4A0-8095-4545-A9DF-264EC3D89FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{82AC8FD0-5410-452A-9EA6-E42518961413}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="2" activeTab="4" xr2:uid="{82AC8FD0-5410-452A-9EA6-E42518961413}"/>
   </bookViews>
   <sheets>
-    <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
+    <sheet name="RDD" sheetId="9" r:id="rId1"/>
+    <sheet name="SparkSession" sheetId="8" r:id="rId2"/>
+    <sheet name="DataFrame" sheetId="1" r:id="rId3"/>
+    <sheet name="Column" sheetId="2" r:id="rId4"/>
+    <sheet name="Row" sheetId="11" r:id="rId5"/>
+    <sheet name="GroupedData" sheetId="7" r:id="rId6"/>
+    <sheet name="DataFrameReader" sheetId="3" r:id="rId7"/>
+    <sheet name="DataFrameWriter" sheetId="4" r:id="rId8"/>
+    <sheet name="DataTypes" sheetId="10" r:id="rId9"/>
+    <sheet name="Window" sheetId="5" r:id="rId10"/>
+    <sheet name="DataFrameNaFunctions" sheetId="6" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RDD!$A$1:$A$111</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +46,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A25C1AB3-99BF-4027-AB86-10D33FBEA7E9}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A25C1AB3-99BF-4027-AB86-10D33FBEA7E9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    -- Create a Spark session.
+spark = (
+    SparkSession.builder
+        .master("local")
+        .appName("Word Count")
+        .config("spark.some.config.option", "some-value")
+        .getOrCreate()
+)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="915">
   <si>
     <t>Category</t>
   </si>
@@ -3182,21 +3220,2613 @@
     <t>💡 Spark Context</t>
   </si>
   <si>
-    <t>DataFrame Methods</t>
+    <t>DataFrame Methods (pyspark.sql.DataFrame)</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Simple Example</t>
+  </si>
+  <si>
+    <t>asc()</t>
+  </si>
+  <si>
+    <t>col("age").asc()</t>
+  </si>
+  <si>
+    <t>Sorts the column in ascending order.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").asc())</t>
+  </si>
+  <si>
+    <t>asc_nulls_first()</t>
+  </si>
+  <si>
+    <t>col("age").asc_nulls_first()</t>
+  </si>
+  <si>
+    <t>Ascending order with nulls first.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").asc_nulls_first())</t>
+  </si>
+  <si>
+    <t>asc_nulls_last()</t>
+  </si>
+  <si>
+    <t>col("age").asc_nulls_last()</t>
+  </si>
+  <si>
+    <t>Ascending order with nulls last.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").asc_nulls_last())</t>
+  </si>
+  <si>
+    <t>desc()</t>
+  </si>
+  <si>
+    <t>col("age").desc()</t>
+  </si>
+  <si>
+    <t>Sorts the column in descending order.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").desc())</t>
+  </si>
+  <si>
+    <t>desc_nulls_first()</t>
+  </si>
+  <si>
+    <t>col("age").desc_nulls_first()</t>
+  </si>
+  <si>
+    <t>Descending with nulls first.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").desc_nulls_first())</t>
+  </si>
+  <si>
+    <t>desc_nulls_last()</t>
+  </si>
+  <si>
+    <t>col("age").desc_nulls_last()</t>
+  </si>
+  <si>
+    <t>Descending with nulls last.</t>
+  </si>
+  <si>
+    <t>df.orderBy(col("age").desc_nulls_last())</t>
+  </si>
+  <si>
+    <t>🔼 Sorting &amp; Ordering</t>
+  </si>
+  <si>
+    <t>startswith()</t>
+  </si>
+  <si>
+    <t>col("name").startswith("A")</t>
+  </si>
+  <si>
+    <t>Checks if string starts with given substring.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prefix</t>
+    </r>
+  </si>
+  <si>
+    <t>df.filter(col("name").startswith("A"))</t>
+  </si>
+  <si>
+    <t>endswith()</t>
+  </si>
+  <si>
+    <t>col("email").endswith(".com")</t>
+  </si>
+  <si>
+    <t>Checks if string ends with given substring.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> suffix</t>
+    </r>
+  </si>
+  <si>
+    <t>df.filter(col("email").endswith(".com"))</t>
+  </si>
+  <si>
+    <t>substr()</t>
+  </si>
+  <si>
+    <t>col("name").substr(1, 3)</t>
+  </si>
+  <si>
+    <t>Returns a substring starting at pos with len chars.</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>length</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("name").substr(1, 3))</t>
+  </si>
+  <si>
+    <t>contains()</t>
+  </si>
+  <si>
+    <t>col("bio").contains("spark")</t>
+  </si>
+  <si>
+    <t>Checks if string contains the substring.</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>df.filter(col("bio").contains("spark"))</t>
+  </si>
+  <si>
+    <t>like()</t>
+  </si>
+  <si>
+    <t>col("name").like("A%")</t>
+  </si>
+  <si>
+    <t>SQL LIKE pattern match.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>df.filter(col("name").like("A%"))</t>
+  </si>
+  <si>
+    <t>ilike()</t>
+  </si>
+  <si>
+    <t>col("name").ilike("a%")</t>
+  </si>
+  <si>
+    <t>Case-insensitive LIKE pattern (Spark ≥ 3.1).</t>
+  </si>
+  <si>
+    <t>df.filter(col("name").ilike("a%"))</t>
+  </si>
+  <si>
+    <t>rlike()</t>
+  </si>
+  <si>
+    <t>col("text").rlike("^[A-Z].*")</t>
+  </si>
+  <si>
+    <t>Regex-based pattern matching.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> regex</t>
+    </r>
+  </si>
+  <si>
+    <t>df.filter(col("text").rlike("^[A-Z].*"))</t>
+  </si>
+  <si>
+    <t>🔍 String Operations</t>
+  </si>
+  <si>
+    <t>alias()</t>
+  </si>
+  <si>
+    <t>col("salary").alias("pay")</t>
+  </si>
+  <si>
+    <t>Assigns an alias to the column.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alias name</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("salary").alias("pay"))</t>
+  </si>
+  <si>
+    <t>name()</t>
+  </si>
+  <si>
+    <t>col("age").name</t>
+  </si>
+  <si>
+    <t>Returns the name of the column.</t>
+  </si>
+  <si>
+    <t>print(col("age").name)</t>
+  </si>
+  <si>
+    <t>cast()</t>
+  </si>
+  <si>
+    <t>col("age").cast("string")</t>
+  </si>
+  <si>
+    <t>Casts the column to specified type.</t>
+  </si>
+  <si>
+    <r>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data type</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("age").cast("string"))</t>
+  </si>
+  <si>
+    <t>astype()</t>
+  </si>
+  <si>
+    <t>col("age").astype("int")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alias for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cast()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in some contexts.</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("age").astype("int"))</t>
+  </si>
+  <si>
+    <t>when()</t>
+  </si>
+  <si>
+    <t>when(col("age") &gt; 18, "adult")</t>
+  </si>
+  <si>
+    <t>SQL-like conditional logic.</t>
+  </si>
+  <si>
+    <r>
+      <t>condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>value</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(when(col("age") &gt; 18, "adult"))</t>
+  </si>
+  <si>
+    <t>otherwise()</t>
+  </si>
+  <si>
+    <t>.otherwise("minor")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies value if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> condition is false.</t>
+    </r>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>when(col("age") &gt; 18, "adult").otherwise("minor")</t>
+  </si>
+  <si>
+    <t>between()</t>
+  </si>
+  <si>
+    <t>col("age").between(18, 65)</t>
+  </si>
+  <si>
+    <t>Checks if values fall within a given range.</t>
+  </si>
+  <si>
+    <r>
+      <t>lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+  </si>
+  <si>
+    <t>df.filter(col("age").between(18, 65))</t>
+  </si>
+  <si>
+    <t>isNull()</t>
+  </si>
+  <si>
+    <t>col("email").isNull()</t>
+  </si>
+  <si>
+    <t>Checks if column value is null.</t>
+  </si>
+  <si>
+    <t>df.filter(col("email").isNull())</t>
+  </si>
+  <si>
+    <t>isNotNull()</t>
+  </si>
+  <si>
+    <t>col("email").isNotNull()</t>
+  </si>
+  <si>
+    <t>Checks if column value is not null.</t>
+  </si>
+  <si>
+    <t>df.filter(col("email").isNotNull())</t>
+  </si>
+  <si>
+    <t>eqNullSafe()</t>
+  </si>
+  <si>
+    <t>col("id").eqNullSafe(100)</t>
+  </si>
+  <si>
+    <t>Equality check that treats nulls as equal.</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>df.filter(col("id").eqNullSafe(100))</t>
+  </si>
+  <si>
+    <t>isin()</t>
+  </si>
+  <si>
+    <t>col("status").isin("NEW", "OLD")</t>
+  </si>
+  <si>
+    <t>SQL IN-style membership check.</t>
+  </si>
+  <si>
+    <t>*values</t>
+  </si>
+  <si>
+    <t>df.filter(col("status").isin("NEW", "OLD"))</t>
+  </si>
+  <si>
+    <t>dropFields()</t>
+  </si>
+  <si>
+    <t>col("struct_col").dropFields("a")</t>
+  </si>
+  <si>
+    <t>Removes fields from a struct column.</t>
+  </si>
+  <si>
+    <t>*fieldNames</t>
+  </si>
+  <si>
+    <t>df.select(col("info").dropFields("zip"))</t>
+  </si>
+  <si>
+    <t>getField()</t>
+  </si>
+  <si>
+    <t>col("struct_col").getField("a")</t>
+  </si>
+  <si>
+    <t>Accesses a field in a struct.</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>df.select(col("address").getField("city"))</t>
+  </si>
+  <si>
+    <t>getItem()</t>
+  </si>
+  <si>
+    <t>col("array_col").getItem(0)</t>
+  </si>
+  <si>
+    <t>Accesses array/map element by index/key.</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>str</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("items").getItem(0))</t>
+  </si>
+  <si>
+    <t>withField()</t>
+  </si>
+  <si>
+    <t>col("struct_col").withField("a", lit(1))</t>
+  </si>
+  <si>
+    <t>Adds or replaces a field in a struct.</t>
+  </si>
+  <si>
+    <r>
+      <t>fieldName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>value</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select(col("info").withField("age", lit(30)))</t>
+  </si>
+  <si>
+    <t>over()</t>
+  </si>
+  <si>
+    <t>row_number().over(windowSpec)</t>
+  </si>
+  <si>
+    <t>Applies window function with the specified window.</t>
+  </si>
+  <si>
+    <t>WindowSpec</t>
+  </si>
+  <si>
+    <t>df.withColumn("rank", rank().over(w))</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Bracket notation</t>
+  </si>
+  <si>
+    <t>df["col_name"]</t>
+  </si>
+  <si>
+    <t>Access column using string key.</t>
+  </si>
+  <si>
+    <t>df.select(df["age"])</t>
+  </si>
+  <si>
+    <t>Dot notation</t>
+  </si>
+  <si>
+    <t>df.col_name</t>
+  </si>
+  <si>
+    <t>Access column using attribute syntax.</t>
+  </si>
+  <si>
+    <t>df.select(df.age)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>select()</t>
+    </r>
+  </si>
+  <si>
+    <t>df.select("col_name")</t>
+  </si>
+  <si>
+    <t>Select one or more columns by name.</t>
+  </si>
+  <si>
+    <t>🏷️ Naming &amp; Aliasing</t>
+  </si>
+  <si>
+    <t>🔄 Type Casting</t>
+  </si>
+  <si>
+    <t>🧠 Conditional Expressions</t>
+  </si>
+  <si>
+    <t>📏 Range Checks</t>
+  </si>
+  <si>
+    <t>❓ Null Handling &amp; Comparisons</t>
+  </si>
+  <si>
+    <t>🧱 Struct &amp; Nested Field Handling</t>
+  </si>
+  <si>
+    <t>📊 Window Functions</t>
+  </si>
+  <si>
+    <t>📌 DataFrame Column Access Methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface used to load a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from external storage systems (e.g. file systems). Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SparkSession.read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to access this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📦 Generic Load Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Used to configure how data is read, regardless of format)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">format() </t>
+  </si>
+  <si>
+    <t>Specifies the data source format (e.g., "csv", "parquet", "json", etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option() </t>
+  </si>
+  <si>
+    <t>Sets a single configuration option</t>
+  </si>
+  <si>
+    <t>options()</t>
+  </si>
+  <si>
+    <t>Sets multiple configuration options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema() </t>
+  </si>
+  <si>
+    <t>Defines the expected schema of the data</t>
+  </si>
+  <si>
+    <t>load()</t>
+  </si>
+  <si>
+    <t>Triggers the actual loading of the data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🗃️ File-Based Data Sources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Shorthand methods for reading specific formats)</t>
+    </r>
+  </si>
+  <si>
+    <t>csv()</t>
+  </si>
+  <si>
+    <t>json()</t>
+  </si>
+  <si>
+    <t>parquet()</t>
+  </si>
+  <si>
+    <t>orc()</t>
+  </si>
+  <si>
+    <t>text()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🌐 External Sources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Used to load data from databases or Spark-managed tables)</t>
+    </r>
+  </si>
+  <si>
+    <t>jdbc()</t>
+  </si>
+  <si>
+    <t>reads data via JDBC from relational databases</t>
+  </si>
+  <si>
+    <t>table()</t>
+  </si>
+  <si>
+    <t>reads a table from the current catalog (e.g., Hive or TempView)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface used to write a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to external storage systems (e.g. file systems). Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFrame.write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to access this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🧰 Output Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Used to configure the write operation)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sets the file format (e.g., "parquet", "json")</t>
+  </si>
+  <si>
+    <t>mode()</t>
+  </si>
+  <si>
+    <t>Sets the save mode ("overwrite", "append", etc.)</t>
+  </si>
+  <si>
+    <t>Sets a single option</t>
+  </si>
+  <si>
+    <t>Sets multiple options</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📤 Output Triggers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Methods that execute the write)</t>
+    </r>
+  </si>
+  <si>
+    <t>save()</t>
+  </si>
+  <si>
+    <t>Saves to a path (file-based)</t>
+  </si>
+  <si>
+    <t>saveAsTable()</t>
+  </si>
+  <si>
+    <t>Saves as a managed or external table</t>
+  </si>
+  <si>
+    <t>insertInto()</t>
+  </si>
+  <si>
+    <t>Inserts into an existing table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🗃️ File-Based Format Writers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shorthand methods for writing data in specific formats)</t>
+    </r>
+  </si>
+  <si>
+    <t>Writes to a JDBC data source (e.g., database)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🧩 Data Organization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Controls how output data is partitioned, sorted, or bucketed)</t>
+    </r>
+  </si>
+  <si>
+    <t>partitionBy()</t>
+  </si>
+  <si>
+    <t>Partitions data by one or more columns</t>
+  </si>
+  <si>
+    <t>bucketBy()</t>
+  </si>
+  <si>
+    <t>Buckets data (used with Hive-compatible tables)</t>
+  </si>
+  <si>
+    <t>sortBy()</t>
+  </si>
+  <si>
+    <t>Defines sorting within buckets</t>
+  </si>
+  <si>
+    <r>
+      <t>pyspark.sql.window.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Utility functions for defining window in DataFrames)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🪟 Window Partitioning &amp; Ordering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(These methods define the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window specification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>orderBy()</t>
+  </si>
+  <si>
+    <t>rowsBetween()</t>
+  </si>
+  <si>
+    <t>rangeBetween()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🛠️ Frame Specification Helpers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Constants used within rowsBetween() and rangeBetween())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Window.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unboundedPreceding</t>
+    </r>
+  </si>
+  <si>
+    <t>Start from the first row in the partition</t>
+  </si>
+  <si>
+    <r>
+      <t>Window.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unboundedFollowing</t>
+    </r>
+  </si>
+  <si>
+    <t>Go until the last row in the partition</t>
+  </si>
+  <si>
+    <r>
+      <t>Window.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentRow</t>
+    </r>
+  </si>
+  <si>
+    <t>Refers to the current row</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">🔁 Usage Context
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+These </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aren’t callable methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but are used to apply window functions on columns:
+These window specs are passed to functions like row_number().over(windowSpec), rank().over(...), etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pyspark.sql.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFrameNaFunctions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (handling missing data in DataFrame)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>([how, thresh, subset])</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns a new DataFrame omitting rows with null values.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(value[, subset])</t>
+    </r>
+  </si>
+  <si>
+    <t>Replace null values, alias for na.fill().</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(to_replace[, value, subset])</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns a new DataFrame replacing a value with another value.</t>
+  </si>
+  <si>
+    <r>
+      <t>Created by DataFrame.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupBy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  pyspark.sql.group.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GroupedData</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📊 Aggregate Functions (Simple Aggregations)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>⁞⁞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Shorthand methods to perform common aggregations on grouped data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">avg() </t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🧠 Custom &amp; Complex Aggregations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⁞⁞  More advanced or multiple aggregations</t>
+    </r>
+  </si>
+  <si>
+    <t>agg()</t>
+  </si>
+  <si>
+    <t>Supports multiple column-wise aggregations (can combine min, max, sum, etc.)</t>
+  </si>
+  <si>
+    <t>mean()</t>
+  </si>
+  <si>
+    <t>Alias for avg(), included for flexibility</t>
+  </si>
+  <si>
+    <t>apply()</t>
+  </si>
+  <si>
+    <t>Used with Pandas UDFs for grouped map operations (available with Arrow enabled)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔗 Advanced Grouping &amp; Joins
+⁞⁞ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Used for cross-group operations or restructuring the output</t>
+    </r>
+  </si>
+  <si>
+    <t>pivot()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pivot a column’s values into separate columns (i.e., wide format)
+</t>
+  </si>
+  <si>
+    <t>cogroup()</t>
+  </si>
+  <si>
+    <t>Co-group two grouped datasets (used with Pandas UDFs)</t>
+  </si>
+  <si>
+    <t>🚀 Session Management</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>→ Builder</t>
+  </si>
+  <si>
+    <t>active()</t>
+  </si>
+  <si>
+    <t>getActiveSession()</t>
+  </si>
+  <si>
+    <t>newSession()</t>
+  </si>
+  <si>
+    <t>stop()</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🛠️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DataFrame Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(To create DataFrames programmatically)</t>
+    </r>
+  </si>
+  <si>
+    <t>createDataFrame()</t>
+  </si>
+  <si>
+    <t>range()</t>
+  </si>
+  <si>
+    <t>read (for reading data into DataFrames)</t>
+  </si>
+  <si>
+    <r>
+      <t>→ pyspark.sql.readwriter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFrameReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>readStream (for streaming DataFrames)</t>
+  </si>
+  <si>
+    <r>
+      <t>→ pyspark.sql.streaming.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataStreamReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>📊 SQL &amp; Table Operations</t>
+  </si>
+  <si>
+    <t>sql()</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <r>
+      <t>→ pyspark.sql.catalog.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catalog</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">🔧 Configuration &amp; Environment
+Attributes providing access to Spark configuration and environment
+</t>
+  </si>
+  <si>
+    <t>conf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RuntimeConfig</t>
+    </r>
+  </si>
+  <si>
+    <t>sparkContext</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SparkContext</t>
+    </r>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🧠 User-Defined Functions (UDFs)
+For registering and working with custom UDFs
+</t>
+  </si>
+  <si>
+    <t>udf</t>
+  </si>
+  <si>
+    <t>→ UDFRegistration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🔄 Streaming Operations
+Tools to manage and monitor structured streaming
+</t>
+  </si>
+  <si>
+    <t>streams</t>
+  </si>
+  <si>
+    <t>RDD_Methods</t>
+  </si>
+  <si>
+    <t>RDD_Attributes</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>***Working with Key/Value Pairs***</t>
+  </si>
+  <si>
+    <t>aggregateByKey</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>is_cached</t>
+  </si>
+  <si>
+    <t>📦 Persistence &amp; Caching</t>
+  </si>
+  <si>
+    <t>cache()</t>
+  </si>
+  <si>
+    <t>combineByKey</t>
+  </si>
+  <si>
+    <t>is_checkpointed</t>
+  </si>
+  <si>
+    <t>getStorageLevel()</t>
+  </si>
+  <si>
+    <t>countByKey</t>
+  </si>
+  <si>
+    <t>cartesian</t>
+  </si>
+  <si>
+    <t>persist()</t>
+  </si>
+  <si>
+    <t>foldByKey</t>
+  </si>
+  <si>
+    <t>unpersist()</t>
+  </si>
+  <si>
+    <t>groupByKey</t>
+  </si>
+  <si>
+    <t>cleanShuffleDependencies</t>
+  </si>
+  <si>
+    <t>reduceByKey</t>
+  </si>
+  <si>
+    <t>join()</t>
+  </si>
+  <si>
+    <t>reduceByKeyLocally</t>
+  </si>
+  <si>
+    <t>cogroup</t>
+  </si>
+  <si>
+    <t>leftOuterJoin()</t>
+  </si>
+  <si>
+    <t>sampleByKey</t>
+  </si>
+  <si>
+    <t>rightOuterJoin()</t>
+  </si>
+  <si>
+    <t>map() vs flatMap()
+coalesce() vs repartition()
+groupByKey() vs reduceByKey() vs combineByKey() vs aggregateByKey()
+foreach() vs foreachPartition()</t>
+  </si>
+  <si>
+    <t>sortByKey</t>
+  </si>
+  <si>
+    <t>collectAsMap</t>
+  </si>
+  <si>
+    <t>fullOuterJoin()</t>
+  </si>
+  <si>
+    <t>subtractByKey</t>
+  </si>
+  <si>
+    <t>collectWithJobGroup</t>
+  </si>
+  <si>
+    <t>keys()  → RDD</t>
+  </si>
+  <si>
+    <t>countApprox</t>
+  </si>
+  <si>
+    <t>values()  → RDD</t>
+  </si>
+  <si>
+    <t>countApproxDistinct</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PySpark RDDs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Fundamental Data Structure
+- Resilient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Immutability
+- Schema-less
+- Low-level API
+- Lazy Evaluation
+- Partitioning</t>
+    </r>
+  </si>
+  <si>
+    <t>countByValue</t>
+  </si>
+  <si>
+    <t>ctx</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>flatMap</t>
+  </si>
+  <si>
+    <t>flatMapValues</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>fullOuterJoin</t>
+  </si>
+  <si>
+    <t>getCheckpointFile</t>
+  </si>
+  <si>
+    <t>getNumPartitions</t>
+  </si>
+  <si>
+    <t>getResourceProfile</t>
+  </si>
+  <si>
+    <t>getStorageLevel</t>
+  </si>
+  <si>
+    <t>glom</t>
+  </si>
+  <si>
+    <t>groupWith</t>
+  </si>
+  <si>
+    <t>has_resource_profile</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>isCheckpointed</t>
+  </si>
+  <si>
+    <t>isLocallyCheckpointed</t>
+  </si>
+  <si>
+    <t>keyBy</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>leftOuterJoin</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>mapPartitions</t>
+  </si>
+  <si>
+    <t>mapPartitionsWithIndex</t>
+  </si>
+  <si>
+    <t>mapPartitionsWithSplit</t>
+  </si>
+  <si>
+    <t>mapValues</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>meanApprox</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>partitionBy</t>
+  </si>
+  <si>
+    <t>partitioner</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>repartitionAndSortWithinPartitions</t>
+  </si>
+  <si>
+    <t>rightOuterJoin</t>
+  </si>
+  <si>
+    <t>sampleStdev</t>
+  </si>
+  <si>
+    <t>sampleVariance</t>
+  </si>
+  <si>
+    <t>saveAsHadoopDataset</t>
+  </si>
+  <si>
+    <t>saveAsHadoopFile</t>
+  </si>
+  <si>
+    <t>saveAsNewAPIHadoopDataset</t>
+  </si>
+  <si>
+    <t>saveAsNewAPIHadoopFile</t>
+  </si>
+  <si>
+    <t>saveAsPickleFile</t>
+  </si>
+  <si>
+    <t>saveAsSequenceFile</t>
+  </si>
+  <si>
+    <t>saveAsTextFile</t>
+  </si>
+  <si>
+    <t>setName</t>
+  </si>
+  <si>
+    <t>sortBy</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sumApprox</t>
+  </si>
+  <si>
+    <t>takeOrdered</t>
+  </si>
+  <si>
+    <t>takeSample</t>
+  </si>
+  <si>
+    <t>toDF</t>
+  </si>
+  <si>
+    <t>toDebugString</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>treeAggregate</t>
+  </si>
+  <si>
+    <t>treeReduce</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>withResources</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>zipWithIndex</t>
+  </si>
+  <si>
+    <t>zipWithUniqueId</t>
+  </si>
+  <si>
+    <t>drop()</t>
+  </si>
+  <si>
+    <t>df.na.drop(how="any", thresh=None, subset=None)</t>
+  </si>
+  <si>
+    <t>Drops rows containing nulls based on the specified condition.</t>
+  </si>
+  <si>
+    <t>df.na.drop(how="all", subset=["age", "salary"])</t>
+  </si>
+  <si>
+    <t>fill()</t>
+  </si>
+  <si>
+    <t>df.na.fill(value, subset=None)</t>
+  </si>
+  <si>
+    <t>Replaces null values with specified value(s).</t>
+  </si>
+  <si>
+    <t>df.na.fill({"age": 0, "name": "unknown"})</t>
+  </si>
+  <si>
+    <t>replace()</t>
+  </si>
+  <si>
+    <t>df.na.replace(to_replace, value=None, subset=None)</t>
+  </si>
+  <si>
+    <t>Replaces specified values (including but not limited to nulls).</t>
+  </si>
+  <si>
+    <t>df.na.replace("N/A", None, subset=["comment"])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (str, optional): "any" or "all" (default "any")
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>thresh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int, optional): Minimum number of non-null values.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>subset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (list of str, optional): Columns to consider.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (scalar, dict): A single value or dict of column-value pairs.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>subset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (list of str, optional): Columns to apply filling on.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>to_replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (scalar, list, or dict): Values to be replaced.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (scalar or list, optional): New values.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>subset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (list of str, optional): Columns to apply replacement on.</t>
+    </r>
+  </si>
+  <si>
+    <t>Window.partitionBy(*cols)</t>
+  </si>
+  <si>
+    <t>Defines how to partition the data before applying window functions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>*cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (str or Column): One or more columns to partition by.</t>
+    </r>
+  </si>
+  <si>
+    <t>Window.partitionBy("department")</t>
+  </si>
+  <si>
+    <t>Window.orderBy(*cols)</t>
+  </si>
+  <si>
+    <t>Specifies the ordering of rows within each partition.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>*cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (str or Column): One or more columns to order by.</t>
+    </r>
+  </si>
+  <si>
+    <t>Window.orderBy(col("salary").desc())</t>
+  </si>
+  <si>
+    <t>Window.rowsBetween(start, end)</t>
+  </si>
+  <si>
+    <t>Defines a frame of rows relative to the current row.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int): Start offset (e.g., -1).- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int): End offset (e.g., 1).</t>
+    </r>
+  </si>
+  <si>
+    <t>Window.orderBy("date").rowsBetween(-1, 1)</t>
+  </si>
+  <si>
+    <t>Window.rangeBetween(start, end)</t>
+  </si>
+  <si>
+    <t>Defines a frame based on a range of values relative to the current row.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int): Lower bound of the range.- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int): Upper bound of the range.</t>
+    </r>
+  </si>
+  <si>
+    <t>Window.orderBy("salary").rangeBetween(-1000, 1000)</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>from pyspark.sql import SparkSession
+from pyspark.sql.window import Window
+from pyspark.sql.functions import sum, col
+# Create SparkSession
+spark = SparkSession.builder.appName("WindowFunctionExample").getOrCreate()
+# Sample data
+data = [
+    ("Sales", "Alice", 2023, 1000),
+    ("Sales", "Alice", 2024, 1500),
+    ("Sales", "Bob", 2023, 1200),
+    ("Sales", "Bob", 2024, 1300),
+    ("HR", "Carol", 2023, 1100),
+    ("HR", "Carol", 2024, 1400),
+]
+columns = ["department", "employee", "year", "salary"]
+df = spark.createDataFrame(data, columns)
+# Define WindowSpec with multiple columns in partitionBy and orderBy
+window_spec = Window.partitionBy("department", "employee").orderBy("year")
+# Apply sum() over the window
+df_with_running_total = df.withColumn(
+    "running_total", sum("salary").over(window_spec)
+)
+df_with_running_total.show()</t>
+  </si>
+  <si>
+    <t>These methods return data as Row objects, which let you access values by column name or index:
+collect() – Returns all rows as a list of Row objects.
+first() – Returns the first row as a single Row object.
+head(n) – Returns the first n rows as a list of Row objects.
+tail(n) – Returns the last n rows as a list of Row objects.
+take(n) – Returns the first n rows as a list of Row objects (same as head(n)).
+toLocalIterator() – Returns an iterator over all rows (each as a Row object).
+These are helpful for pulling data from a DataFrame and working with it in a structured format.</t>
+  </si>
+  <si>
+    <r>
+      <t>pyspark.sql.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→ A row in DataFrame.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Converting a list of Rows to DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+data = [Row(name="Alice", age=30), Row(name="Bob", age=25)]
+df = spark.createDataFrame(data)
+df.show()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating Rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+row = Row(name="Alice", age=30)
+print(row.name)       # Alice
+print(row['age'])     # 30
+print(row[0])         # Alice</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3270,8 +5900,67 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3290,8 +5979,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3463,109 +6170,443 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3573,6 +6614,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3582,6 +6628,254 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D896C52D-A9AE-4CC0-8DEA-7715D46A7310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9305926" y="595312"/>
+          <a:ext cx="6505574" cy="4337049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CCA36B-A7DB-4541-9588-D916CBF3B6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9986963" y="514350"/>
+          <a:ext cx="3562350" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1481137</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D371D662-E60D-4831-B4BE-B0FCDF15E2B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61912" y="3590925"/>
+          <a:ext cx="7786688" cy="3189602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F394FD52-4AF5-4588-AED4-8AE6B9D1C085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7662863" y="1295398"/>
+          <a:ext cx="2743200" cy="3708875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Chaitanya A S" id="{7216B95F-427B-43C0-94FE-FF6D7599568E}" userId="5a37bb46329a9577" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3879,28 +7173,1454 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2025-04-06T15:03:36.13" personId="{7216B95F-427B-43C0-94FE-FF6D7599568E}" id="{A25C1AB3-99BF-4027-AB86-10D33FBEA7E9}">
+    <text>-- Create a Spark session.
+spark = (
+    SparkSession.builder
+        .master("local")
+        .appName("Word Count")
+        .config("spark.some.config.option", "some-value")
+        .getOrCreate()
+)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BF245-DB97-4683-A147-6E3940F986DA}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:O111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="A2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2" t="s">
+        <v>776</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>784</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>787</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>792</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.65" thickBot="1">
+      <c r="A10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="O11" s="23" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>802</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="O12" s="23" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>805</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.65" thickBot="1">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>811</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>812</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>813</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>814</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>815</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>816</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A27" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="32" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="32" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="32" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="32" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="32" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="32" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="32" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="32" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="32" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="32" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="32" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A111" xr:uid="{BC96FD32-CD43-45A8-8DFE-81EFC9B8F665}"/>
+  <mergeCells count="3">
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G11:K15"/>
+    <mergeCell ref="G18:K27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6395225-84CD-442F-A17E-A646C1EF6986}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.1328125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="34"/>
+      <c r="B5" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34"/>
+      <c r="B6" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.65" thickBot="1"/>
+    <row r="8" spans="1:8">
+      <c r="B8" s="81" t="s">
+        <v>909</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>910</v>
+      </c>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="65" t="s">
+        <v>709</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="84"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="53"/>
+      <c r="B10" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="84"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="53"/>
+      <c r="B11" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="84"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="61"/>
+      <c r="F12" s="84"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" s="61"/>
+      <c r="F13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="84"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="84"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="84"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="84"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="84"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="E23" s="61"/>
+      <c r="F23" s="84"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="61"/>
+      <c r="F24" s="84"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="61"/>
+      <c r="F25" s="84"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="E26" s="61"/>
+      <c r="F26" s="84"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="61"/>
+      <c r="F27" s="84"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" s="61"/>
+      <c r="F28" s="84"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="61"/>
+      <c r="F29" s="84"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="61"/>
+      <c r="F30" s="84"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="E31" s="61"/>
+      <c r="F31" s="84"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" s="61"/>
+      <c r="F32" s="84"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="61"/>
+      <c r="F33" s="84"/>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="61"/>
+      <c r="F34" s="84"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="61"/>
+      <c r="F35" s="84"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="61"/>
+      <c r="F36" s="84"/>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="61"/>
+      <c r="F37" s="84"/>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="61"/>
+      <c r="F38" s="84"/>
+    </row>
+    <row r="39" spans="5:6" ht="14.65" thickBot="1">
+      <c r="E39" s="62"/>
+      <c r="F39" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A14:C18"/>
+    <mergeCell ref="E8:F39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC200A0-124F-4F49-9447-742AB4439CEA}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.796875" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.46484375" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.86328125" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="70" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="70" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.65" thickBot="1"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75">
+      <c r="A9" s="75" t="s">
+        <v>878</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5">
+      <c r="A10" s="75" t="s">
+        <v>882</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.15" thickBot="1">
+      <c r="A11" s="77" t="s">
+        <v>886</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>892</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>889</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB211B2-05AD-4734-BB61-211178733A8A}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A4:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="23" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="53" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="C15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="23" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="53" t="s">
+        <v>762</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C24" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="37.9" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="71.25">
+      <c r="A28" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="71.25">
+      <c r="A31" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97905B9A-FCB3-43DC-ADA9-FFEC1BE6A76E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="16.149999999999999">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3924,1996 +8644,1996 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:7" ht="28.5">
+      <c r="A26" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:7" ht="14.65" thickBot="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="55" t="s">
         <v>481</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="23"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="24"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="24"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="24"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="24"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="24"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="1:7" ht="14.65" thickBot="1">
+      <c r="A51" s="59"/>
+      <c r="B51" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="52" spans="1:7" ht="14.65" thickTop="1"/>
     <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="55" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="34"/>
+      <c r="B65" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="34"/>
+      <c r="B70" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="34"/>
+      <c r="B76" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="34"/>
+      <c r="B77" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="34"/>
+      <c r="B81" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="34"/>
+      <c r="B86" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8" t="s">
+      <c r="A87" s="34"/>
+      <c r="B87" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="6" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="34"/>
+      <c r="B88" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="34"/>
+      <c r="B92" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="34"/>
+      <c r="B93" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="34"/>
+      <c r="B95" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="6" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="34"/>
+      <c r="B97" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="6" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="6" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="33" t="s">
         <v>495</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5936,7 +10656,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="32"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="2" t="s">
         <v>435</v>
       </c>
@@ -5957,7 +10677,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="32"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="2" t="s">
         <v>439</v>
       </c>
@@ -5978,13 +10698,13 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="20" t="s">
         <v>496</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="21" t="s">
         <v>445</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -6001,7 +10721,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="20" t="s">
         <v>497</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -6024,7 +10744,7 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="20" t="s">
         <v>498</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -6047,7 +10767,7 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="20" t="s">
         <v>491</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -6070,7 +10790,7 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="20" t="s">
         <v>492</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -6093,13 +10813,13 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="20" t="s">
         <v>493</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6116,7 +10836,7 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="20" t="s">
         <v>494</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6140,11 +10860,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A112:G113"/>
-    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A91:A93"/>
@@ -6156,31 +10888,1495 @@
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A108:G108"/>
     <mergeCell ref="A74:A79"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A63:G63"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A112:G113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A108:G108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB036C2-9583-4B3A-9BF4-B46DAA52EA02}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF66"/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.149999999999999">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="34"/>
+      <c r="B3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="34"/>
+      <c r="B5" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="34"/>
+      <c r="B6" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34"/>
+      <c r="B7" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34"/>
+      <c r="B10" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34"/>
+      <c r="B11" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34"/>
+      <c r="B12" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="34"/>
+      <c r="B13" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="34"/>
+      <c r="B14" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34"/>
+      <c r="B15" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="34"/>
+      <c r="B18" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="34"/>
+      <c r="B21" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="34"/>
+      <c r="B24" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="34"/>
+      <c r="B29" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="34"/>
+      <c r="B30" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="34"/>
+      <c r="B31" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="34"/>
+      <c r="B34" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="34"/>
+      <c r="B35" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="34"/>
+      <c r="B36" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.149999999999999">
+      <c r="A41" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="34"/>
+      <c r="B43" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="34"/>
+      <c r="B44" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE933263-ED74-4F78-B86B-9CA6056EBCA3}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.65" thickBot="1"/>
+    <row r="3" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="K3" s="35" t="s">
+        <v>911</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.65" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="G9" s="14"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="14"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="14"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="14"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="14"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" thickBot="1">
+      <c r="A14" s="95"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="86"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="87"/>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="86"/>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="87"/>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="86"/>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22" s="87"/>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" s="87"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="87"/>
+    </row>
+    <row r="27" spans="12:12">
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K3:Q14"/>
+    <mergeCell ref="A10:F14"/>
+    <mergeCell ref="A3:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C209F2-645E-4252-90D0-6363E31162C6}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="43.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="53"/>
+      <c r="B4" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="53"/>
+      <c r="B5" s="23" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="53"/>
+      <c r="B6" s="23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="53"/>
+      <c r="B7" s="23" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="34"/>
+      <c r="B11" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="34"/>
+      <c r="B12" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1">
+      <c r="A15" s="65" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45.75" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1577FC-7830-4726-AAF0-B41FEE88649E}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="34"/>
+      <c r="B4" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="34"/>
+      <c r="B5" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="34"/>
+      <c r="B6" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="34"/>
+      <c r="B7" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="34"/>
+      <c r="B11" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="34"/>
+      <c r="B12" s="23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="34"/>
+      <c r="B13" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="34"/>
+      <c r="B14" s="23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1862865-1D1C-4C32-B8E3-E4957396AB11}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.86328125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="34"/>
+      <c r="B4" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="34"/>
+      <c r="B5" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="34"/>
+      <c r="B6" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="34"/>
+      <c r="B10" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="34"/>
+      <c r="B11" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="65" t="s">
+        <v>695</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="34"/>
+      <c r="B15" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="34"/>
+      <c r="B16" s="23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A22" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C581DDA0-1E77-4881-B2E8-E695034CEEDC}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>